--- a/Libro_de_codigos.xlsx
+++ b/Libro_de_codigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minedu\02 Análisis\2025\12 Análisis infraestructura\01 Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FEF54-B315-4B7A-99E7-E95026F68493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BBDDE-213E-4DE1-ACC4-51BEBE75BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83F82132-3D4B-4C84-AB95-D4580A6D8D79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="223">
   <si>
     <t>año</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>CUADRO</t>
+  </si>
+  <si>
+    <t>Loc_P501_Aulas_23.dbf</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
     <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4494,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451FFD7-4BE3-4AAE-BFBD-F91636C495C8}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,7 +4517,7 @@
     <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -4822,7 +4825,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -4858,7 +4861,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3">
         <v>11</v>
@@ -4896,7 +4899,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D11" s="3">
         <v>11</v>
@@ -4931,7 +4934,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -4969,7 +4972,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -5007,7 +5010,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -5045,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D15" s="3">
         <v>11</v>
@@ -5083,7 +5086,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D16" s="3">
         <v>11</v>
@@ -5121,7 +5124,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D17" s="3">
         <v>11</v>
@@ -5156,7 +5159,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
@@ -5191,7 +5194,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D19" s="3">
         <v>11</v>
@@ -5226,7 +5229,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3">
         <v>11</v>
@@ -5261,7 +5264,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D21" s="3">
         <v>11</v>
@@ -5296,7 +5299,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3">
         <v>11</v>
@@ -5331,7 +5334,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3">
         <v>11</v>
@@ -5366,7 +5369,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3">
         <v>11</v>

--- a/Libro_de_codigos.xlsx
+++ b/Libro_de_codigos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minedu\02 Análisis\2025\12 Análisis infraestructura\01 Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EC427-CB8F-483E-8B46-7CD86E31C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89283D2D-428E-4F12-9F5F-915C6623561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83F82132-3D4B-4C84-AB95-D4580A6D8D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83F82132-3D4B-4C84-AB95-D4580A6D8D79}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="221">
   <si>
     <t>año</t>
   </si>
@@ -696,6 +696,15 @@
   </si>
   <si>
     <t>Mobiliario SSHH</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>desague</t>
+  </si>
+  <si>
+    <t>luz</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168B6502-83CC-49AF-9E50-2E357D869858}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451FFD7-4BE3-4AAE-BFBD-F91636C495C8}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E85"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4541,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>106</v>
@@ -4570,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>107</v>
@@ -4608,7 +4617,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>108</v>
@@ -6068,7 +6077,7 @@
         <v>14</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>106</v>
@@ -6107,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>107</v>
@@ -6146,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>108</v>

--- a/Libro_de_codigos.xlsx
+++ b/Libro_de_codigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minedu\02 Análisis\2025\12 Análisis infraestructura\01 Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89283D2D-428E-4F12-9F5F-915C6623561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D8930-1212-4EF8-B1F7-DBE06856693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83F82132-3D4B-4C84-AB95-D4580A6D8D79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="224">
   <si>
     <t>año</t>
   </si>
@@ -705,6 +705,17 @@
   </si>
   <si>
     <t>luz</t>
+  </si>
+  <si>
+    <t>P501_4_11</t>
+  </si>
+  <si>
+    <t>nivmod</t>
+  </si>
+  <si>
+    <t>Niveles educativos de la Educación Básica/ETP y/o
+Carreras/Programas de la Educación Superior que usan el
+ambiente</t>
   </si>
 </sst>
 </file>
@@ -4412,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451FFD7-4BE3-4AAE-BFBD-F91636C495C8}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2023</v>
       </c>
@@ -4681,19 +4692,22 @@
         <v>186</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>126</v>
+        <v>222</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4719,20 +4733,22 @@
         <v>186</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2023</v>
       </c>
@@ -4755,22 +4771,20 @@
         <v>186</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2023</v>
       </c>
@@ -4793,19 +4807,22 @@
         <v>186</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="3">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2023</v>
       </c>
@@ -4828,19 +4845,16 @@
         <v>186</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="K11" s="3">
+        <v>999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4866,13 +4880,13 @@
         <v>186</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>131</v>
+        <v>149</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>32</v>
@@ -4904,13 +4918,13 @@
         <v>186</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>32</v>
@@ -4942,13 +4956,13 @@
         <v>186</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>32</v>
@@ -4980,13 +4994,13 @@
         <v>186</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>32</v>
@@ -4995,7 +5009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2023</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
@@ -5017,17 +5031,20 @@
       <c r="G16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>154</v>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="3">
-        <v>999999</v>
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5052,14 +5069,14 @@
       <c r="G17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>155</v>
+      <c r="H17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="3">
         <v>999999</v>
@@ -5088,13 +5105,13 @@
         <v>186</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18" s="3">
         <v>999999</v>
@@ -5122,14 +5139,14 @@
       <c r="G19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>49</v>
+      <c r="H19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K19" s="3">
         <v>999999</v>
@@ -5158,13 +5175,13 @@
         <v>186</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K20" s="3">
         <v>999999</v>
@@ -5193,13 +5210,13 @@
         <v>186</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="3">
         <v>999999</v>
@@ -5228,13 +5245,13 @@
         <v>186</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22" s="3">
         <v>999999</v>
@@ -5263,65 +5280,59 @@
         <v>186</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="3">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="3">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>194</v>
@@ -5339,23 +5350,25 @@
         <v>187</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2023</v>
       </c>
@@ -5377,67 +5390,65 @@
       <c r="G26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="3">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="3">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2023</v>
       </c>
@@ -5460,25 +5471,25 @@
         <v>188</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2023</v>
       </c>
@@ -5492,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>71</v>
@@ -5500,20 +5511,23 @@
       <c r="G29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>167</v>
+      <c r="H29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5539,13 +5553,13 @@
         <v>188</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>32</v>
@@ -5577,13 +5591,13 @@
         <v>188</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>32</v>
@@ -5592,7 +5606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2023</v>
       </c>
@@ -5606,7 +5620,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>71</v>
@@ -5614,17 +5628,20 @@
       <c r="G32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>170</v>
+      <c r="H32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="3">
-        <v>999999</v>
+        <v>84</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5649,14 +5666,14 @@
       <c r="G33" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>171</v>
+      <c r="H33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K33" s="3">
         <v>999999</v>
@@ -5684,14 +5701,14 @@
       <c r="G34" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>172</v>
+      <c r="H34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K34" s="3">
         <v>999999</v>
@@ -5720,13 +5737,13 @@
         <v>188</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K35" s="3">
         <v>999999</v>
@@ -5755,13 +5772,13 @@
         <v>188</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K36" s="3">
         <v>999999</v>
@@ -5790,13 +5807,13 @@
         <v>188</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K37" s="3">
         <v>999999</v>
@@ -5825,13 +5842,13 @@
         <v>188</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K38" s="3">
         <v>999999</v>
@@ -5860,13 +5877,13 @@
         <v>188</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K39" s="3">
         <v>999999</v>
@@ -5894,14 +5911,14 @@
       <c r="G40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>178</v>
+      <c r="H40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K40" s="3">
         <v>999999</v>
@@ -5930,13 +5947,13 @@
         <v>188</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K41" s="3">
         <v>999999</v>
@@ -5964,14 +5981,14 @@
       <c r="G42" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>105</v>
+      <c r="H42" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="3">
         <v>999999</v>
@@ -5999,94 +6016,90 @@
       <c r="G43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="3">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="3">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="K44" s="3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="3">
-        <v>11</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D45" s="3">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="3">
-        <v>11</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M45" s="1"/>
     </row>
@@ -6104,25 +6117,25 @@
         <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>16</v>
@@ -6143,60 +6156,67 @@
         <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="3">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -6205,31 +6225,24 @@
         <v>2024</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="3">
-        <v>11</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>10</v>
@@ -6239,7 +6252,7 @@
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2024</v>
       </c>
@@ -6261,22 +6274,26 @@
       <c r="G50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>29</v>
+      <c r="H50" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2024</v>
       </c>
@@ -6299,19 +6316,19 @@
         <v>186</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="M51" s="1"/>
     </row>
@@ -6338,13 +6355,13 @@
         <v>186</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K52" s="3">
         <v>999999</v>
@@ -6375,13 +6392,13 @@
         <v>186</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>32</v>
@@ -6391,7 +6408,7 @@
       </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2024</v>
       </c>
@@ -6414,20 +6431,18 @@
         <v>186</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6453,13 +6468,13 @@
         <v>186</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>32</v>
@@ -6491,14 +6506,14 @@
       <c r="G56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>41</v>
+      <c r="H56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>32</v>
@@ -6530,14 +6545,14 @@
       <c r="G57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>153</v>
+      <c r="H57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>32</v>
@@ -6547,7 +6562,7 @@
       </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2024</v>
       </c>
@@ -6561,7 +6576,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>26</v>
@@ -6569,22 +6584,24 @@
       <c r="G58" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>154</v>
+      <c r="H58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L58" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2024</v>
       </c>
@@ -6598,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>26</v>
@@ -6607,18 +6624,20 @@
         <v>186</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K59" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L59" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6643,14 +6662,14 @@
       <c r="G60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>156</v>
+      <c r="H60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K60" s="3">
         <v>999999</v>
@@ -6680,14 +6699,14 @@
       <c r="G61" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>49</v>
+      <c r="H61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="K61" s="3">
         <v>999999</v>
@@ -6717,14 +6736,14 @@
       <c r="G62" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>158</v>
+      <c r="H62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K62" s="3">
         <v>999999</v>
@@ -6755,13 +6774,13 @@
         <v>186</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>52</v>
+        <v>157</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K63" s="3">
         <v>999999</v>
@@ -6792,13 +6811,13 @@
         <v>186</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K64" s="3">
         <v>999999</v>
@@ -6829,13 +6848,13 @@
         <v>186</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K65" s="3">
         <v>999999</v>
@@ -6843,87 +6862,81 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2024</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D66" s="3">
         <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K66" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2024</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D67" s="3">
         <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K67" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2024</v>
       </c>
@@ -6946,107 +6959,105 @@
         <v>187</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2024</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="3">
         <v>11</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="3">
         <v>11</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2024</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>71</v>
@@ -7068,24 +7079,26 @@
       <c r="G71" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>167</v>
+      <c r="H71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2024</v>
       </c>
@@ -7099,7 +7112,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>71</v>
@@ -7107,22 +7120,24 @@
       <c r="G72" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>168</v>
+      <c r="H72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M72" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -7147,13 +7162,13 @@
         <v>188</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>32</v>
@@ -7163,7 +7178,7 @@
       </c>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2024</v>
       </c>
@@ -7177,7 +7192,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>71</v>
@@ -7185,22 +7200,24 @@
       <c r="G74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>170</v>
+      <c r="H74" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K74" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L74" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2024</v>
       </c>
@@ -7214,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>71</v>
@@ -7223,18 +7240,20 @@
         <v>188</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" s="3">
-        <v>999999</v>
-      </c>
-      <c r="L75" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -7260,13 +7279,13 @@
         <v>188</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K76" s="3">
         <v>999999</v>
@@ -7296,14 +7315,14 @@
       <c r="G77" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>173</v>
+      <c r="H77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K77" s="3">
         <v>999999</v>
@@ -7334,13 +7353,13 @@
         <v>188</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K78" s="3">
         <v>999999</v>
@@ -7371,13 +7390,13 @@
         <v>188</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K79" s="3">
         <v>999999</v>
@@ -7408,13 +7427,13 @@
         <v>188</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="K80" s="3">
         <v>999999</v>
@@ -7445,13 +7464,13 @@
         <v>188</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K81" s="3">
         <v>999999</v>
@@ -7481,14 +7500,14 @@
       <c r="G82" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>178</v>
+      <c r="H82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K82" s="3">
         <v>999999</v>
@@ -7518,14 +7537,14 @@
       <c r="G83" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>179</v>
+      <c r="H83" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K83" s="3">
         <v>999999</v>
@@ -7555,14 +7574,14 @@
       <c r="G84" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>105</v>
+      <c r="H84" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K84" s="3">
         <v>999999</v>
@@ -7593,19 +7612,93 @@
         <v>188</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K85" s="3">
         <v>999999</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="3">
+        <v>11</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>11</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K87" s="3">
+        <v>999999</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libro_de_codigos.xlsx
+++ b/Libro_de_codigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minedu\02 Análisis\2025\12 Análisis infraestructura\01 Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D8930-1212-4EF8-B1F7-DBE06856693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7EF74-51B6-4755-9B8F-F507EEC6F216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83F82132-3D4B-4C84-AB95-D4580A6D8D79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="225">
   <si>
     <t>año</t>
   </si>
@@ -716,6 +716,9 @@
     <t>Niveles educativos de la Educación Básica/ETP y/o
 Carreras/Programas de la Educación Superior que usan el
 ambiente</t>
+  </si>
+  <si>
+    <t>P501_5_11</t>
   </si>
 </sst>
 </file>
@@ -4426,7 +4429,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6275,7 +6278,7 @@
         <v>186</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>222</v>
